--- a/Reviews/4_Review/4_Sprint_Burn-Down_Chart.xlsx
+++ b/Reviews/4_Review/4_Sprint_Burn-Down_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Desktop\github_projekte\SYP_GRUPPE_3_2024\Reviews\4_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1A2B1-FA51-4580-BA7E-2272E4DEAC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4DDC10-0BB4-487E-891A-0171BE421D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08BCE8FC-179B-459C-9B7D-265214947282}"/>
   </bookViews>
@@ -246,7 +246,7 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,16 +307,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.5</c:v>
+                  <c:v>39.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2569,7 +2569,7 @@
   <dimension ref="B3:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2596,7 @@
         <v>53</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,8 @@
         <v>53</v>
       </c>
       <c r="D5">
-        <v>25.5</v>
+        <f>D4*0.75</f>
+        <v>39.75</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2618,7 +2619,7 @@
         <v>53</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2630,7 +2631,7 @@
       </c>
       <c r="D7">
         <f>D4/4</f>
-        <v>8.5</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2638,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>0</v>
